--- a/Карта учета ОМ и тестов.xlsx
+++ b/Карта учета ОМ и тестов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Work\DSTU\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA399D5-3ADB-4C1E-8C8C-C30E9A6195DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2880ADE3-AA66-4869-AE2B-D1DC9B5F09EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="2660" windowWidth="33700" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ВИС (1-23)" sheetId="14" r:id="rId1"/>
@@ -3805,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22813,7 +22813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
